--- a/test_output/inv_mos_dev.xlsx
+++ b/test_output/inv_mos_dev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11328,2546 +11328,2340 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
-      <c r="B331" t="n">
-        <v>139345000</v>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>216 м2</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>104 846 926,04 руб.</t>
+        </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Строгино, пр-кт Маршала Жукова, дом 78 к. 5</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>ЮАО, Даниловский р-н, подуличные переходы, примыкающие к станциям: «Автозаводская», «Коломенская», «Новокосино», «Ботанический сад», «ВДНХ», «Китай-г.», «Дубровка», «Зябликово», «Шипиловская», «Алтуфьево», «Полянка», «Лубянка», «Преображенская пл.», «Пролетарская», «Пушкинская»</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021752_1</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>г. Москва, просп. Маршала Жукова, д. 78, корп. 5, общей пл. 948,6 кв. м (этаж № 1, № 2)посредством публичного предложения</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19611303</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
         <is>
-          <t>29.08.2024 15:00 (МСК)</t>
+          <t>19.08.2024, 11:00</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
-        <v>758.2</v>
-      </c>
-      <c r="B332" t="n">
-        <v>44127240</v>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>382,67 м2</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>181 514 979 руб.</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
+          <t>СЗАО, р-н Митино, подуличные переходы, примыкающие к станциям: «Митино», «Пятницкое ш.», «Войковская», «Сокол», «Коньково», «Ясенево», «Белорусская», «б-р Дмитрия Донского», «Дмитровская», «Менделеевская», «Нагатинская», «Нагорная», «Пражская», «Тимирязевская», «ул. Академика Янгеля», «Южная»,  «Юго-Западная», «Беговая»</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_2</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19611269</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr">
         <is>
-          <t>14.08.2024 12:00 (МСК+4)</t>
+          <t>12.08.2024, 11:00</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>760.4</v>
-      </c>
-      <c r="B333" t="n">
-        <v>44255300</v>
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>351 392 212,11 руб.</t>
+        </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>САО, р-н Восточное Дегунино, территории нежилой застройки города Москвы, расположенные по адресам: ул. Дубнинская, вл. 4, вл. 50, пр-д Дубнинский, вл. 2, стр. 1</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_1</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19603328</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr">
         <is>
-          <t>14.08.2024 12:00 (МСК+4)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
-        <v>2307.3</v>
-      </c>
-      <c r="B334" t="n">
-        <v>46510000</v>
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>41 663 676,27 руб.</t>
+        </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Мурманская область, обл Мурманская, м.о. город Кировск, г Кировск, ул Кирова, дом 19</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t>ЮВАО, Нижегородский р-н, территория нежилой застройки города Москвы,  расположенная в производственной зоне No 24 «Карачарово» (территория 2), р-н Нижегородский</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000011690000000123_1</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Мурманская обл., г. Кировск, ул. Кирова д. 19.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19603645</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr">
         <is>
-          <t>12.08.2024 17:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
-      <c r="B335" t="n">
-        <v>429079002</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>7 451 881 550,05 руб.</t>
+        </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Некрасовка, ул 2-я Вольская, дом 11 к. 3</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
+          <t>ЗАО, Незастроенная территория города Москвы, расположенная по адресу: г.Москва, ТПУ «Минская» (Староволынская ул.)</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054680000000092_1</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>г. Москва. 2-я Вольская улица, д.11, корп.3, площадь 9097,4 м², кадастровый номер: 77:04:0006002:4475</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19521849</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr">
         <is>
-          <t>22.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
-        <v>533.5</v>
-      </c>
-      <c r="B336" t="n">
-        <v>72054400</v>
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>255 675 096,61 руб.</t>
+        </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва ул. Краснобогатырская, д. 72 стр.2</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr"/>
+          <t>ЮВАО, территория нежилой застройки города Москвы, расположенная в производственной зоне No 56 «Грайвороново» (р-н Рязанский, территория 2)</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001342_1</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>г.Москва, ул. Краснобогатырская, д. 72 стр.2, к/н: 77:03:0001003:1054</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19466718</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
-          <t>15.08.2024 09:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
-      <c r="B337" t="n">
-        <v>89316456.15000001</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>55 437 648,82 руб.</t>
+        </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Арбат, пер Шубинский, дом 2/3 пом. 3/Ц</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t>СВАО, территория нежилой застройки города Москвы, расположенная по адресам: пр-т Мира, вл. 220А, ул. Бажова, вл. 17, 28-30, Будайский проезд, вл. 11</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001326_1</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>г. Москва, пер. Шубинский, д. 2/3, пом. 3/Ц, к/н 77:01:0005001:6133, поручение Л3/24/25/ЦАО №1-55</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19463931</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
-          <t>30.07.2024 11:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
-        <v>380.2</v>
-      </c>
-      <c r="B338" t="n">
-        <v>60639549</v>
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>89 733 872,83 руб.</t>
+        </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Свердловская область, обл Свердловская, г.о. город Екатеринбург, г Екатеринбург, ул Бабушкина, дом 1</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>ЗелАО, территория нежилой застройки города Москвы, расположенная в производственной зоне «Малино»</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000038750000000248_7</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Нежилые помещения и право долгосрочной аренды земельного участка, площадь 380,2 кв.м.; 2666,2 кв.м.; 7655 кв.м., кадастровый № 66:41:0108124:65; 66:41:0108124:58; 66:41:0108111:83, должник МУП «Екатеринбургэнерго». Уведомление ТУ Росимущества в СО от 18.04.2024 № 98-34/24. Адрес объекта: Свердловская область, г. Екатеринбург, ул. Бабушкина, д. 1. Минимальная начальная цена 60639549р. Сумма задатка 9095932.35р.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19460072</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
-          <t>09.08.2024 00:00 (МСК+2)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
-        <v>511.4</v>
-      </c>
-      <c r="B339" t="n">
-        <v>42837000</v>
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>336 370 284,74 руб.</t>
+        </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Чертаново Северное, мкр. Северное Чертаново, дом 4 к. 407</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr"/>
+          <t>СВАО, территории нежилой застройки города Москвы, расположенная в производственной зоне No 51 «Медведково» (участки территории 1, 2, 3)</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021512_1</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>г. Москва, мкр. Северное Чертаново, д. 4, корп. 407, площадью 511,4 кв. м (Этаж № 2), кадастровый номер: 77:05:0006002:13624</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19423042</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
-          <t>12.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
-      <c r="B340" t="n">
-        <v>273889000</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>433 473 716,99 руб.</t>
+        </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хамовники, ул Малая Пироговская, дом 13 стр. 1</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
+          <t>СЗАО, территория нежилой застройки города Москвы, расположенная в производственной зоне No 42 «Тушино»</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001240_1</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>г. Москва, вн.тер.г, муниципальный округ Хамовники, ул. Малая Пироговская, д. 13, стр. 1, пом. 2/1, к.н. 77:01:0005008:5270, пл. 1 388,7 кв.м.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19459870</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
-          <t>09.08.2024 18:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="n">
-        <v>2176232000</v>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>286 м2</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>133 461 089,4 руб.</t>
+        </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Таганская, дом 3</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>ЮАО, р-н Орехово-Борисово Северное, подуличные переходы, примыкающие к станциям: «Домодедовская», «Коломенская», «Марьино», «Царицыно», «Южная», «Ясенево», «пл. Ильича», «Волжская», «Лермонтовский пр-т», «Люблино», «Нагорная», «Пражская», «Пролетарская», «Новокосино». общей площадью 286,0 кв.м.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание, Театральные билеты, Печать</t>
+        </is>
+      </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001233_1</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Таганская, д. 3, пом. 2/3, к.н. 77:01:0006025:4570, пл. 12 110,5 кв.м.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19380103</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
-          <t>08.08.2024 18:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>250</v>
-      </c>
-      <c r="B342" t="n">
-        <v>52017000</v>
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>295 962 356,56 руб.</t>
+        </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Ново-Переделкино, ул Чоботовская, дом 2 к. 2</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>Территория нежилой застройки города Москвы No 24, расположенная в производственной зоне No 11 «Огородный проезд» (северная часть)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021497_1</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Чоботовская, д. 2, корп. 2 площадью 250 кв. м. (Этаж № 1), кадастровый номер: 77:07:0015005:32152</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19381991</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
-          <t>15.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
-        <v>879</v>
-      </c>
-      <c r="B343" t="n">
-        <v>43384000</v>
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>98 590 703,5 руб.</t>
+        </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Белгородская область, обл Белгородская, г.о. город Белгород, г Белгород, ул Константина Заслонова, дом 92в</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>территория нежилой застройки города Москвы No 53, расположенная в производственной зоне «Выхино»</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000016390000000852_25</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>Нежилое здание площадью 879 кв. м, кадастровый номер 31:16:0210027:1138. Имущество обременено: арест, запрет на регистрационные действия, доверительное управление. Имущество принадлежит на праве собственности Пономаревой Т.А. Основание реализации: постановление о передаче арестованного имущества на торги от 13.06.2024 №31010/24/1736386 ОСП по г.Белгороду УФССП России по Белгородской</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19261867</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
         <is>
-          <t>08.08.2024 18:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
-      <c r="B344" t="n">
-        <v>384033000</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>987 907 074,47 руб.</t>
+        </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Марьино, ул Братиславская, дом 15 к. 1, помещ. 1Н</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>САО, р-н Беговой, территория нежилой застройки города Москвы No 125, ограниченная Ленинградским проспектом, 1-м Боткинским проездом, ул. Бориса Петровского и ул. Маршала Шапошникова</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000309_1</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Марьино, ул. Братиславская, д. 15, к. 1, помещ. 1Н, к/н 77:04:0004026:18351, должник (собственник) ООО «Призма»   Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19163810</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
-          <t>05.08.2024 11:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
-      <c r="B345" t="n">
-        <v>111792000</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>424 497 823,6 руб.</t>
+        </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Улофа Пальме, дом 1</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>ЮВАО, Южнопортовый р-н, территория нежилой застройки города Москвы No 2135, расположенная по адресу: Волгоградский пр-т, вл. 32</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001225_1</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>г. Москва, вн.тер.г, муниципальный округ Раменки, ул. Улофа Пальме, д. 1, пом. 18/1, (этаж 1: пом. XVIII, ком. 1-17; этаж 2: пом. II, ком. 1-11; этаж 3: пом. I, ком. 1-15), к.н. 77:07:0006004:16784, пл. 1 798,6 кв.м.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19146181</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr">
         <is>
-          <t>05.08.2024 18:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
-        <v>346.9</v>
-      </c>
-      <c r="B346" t="n">
-        <v>37587000</v>
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>538 329 635,77 руб.</t>
+        </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Бабушкинский, ул Лётчика Бабушкина, дом 38 к. 2</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
+          <t>САО, территория нежилой застройки города Москвы No 17 и No 18, расположенная в производственной зоне No 47 «Вагоноремонт»</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021480_1</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>ул. Лётчика Бабушкина, д. 38, корп. 2, общей площадью 346,9 кв. м (Этаж № 1, Этаж № 3), кадастровые номера: 77:02:0010009:3797, 77:02:0010009:3796, 77:02:0010009:3798,77:02:0010009:3703</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/19025042</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
-          <t>06.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
-      <c r="B347" t="n">
-        <v>49408000</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>54 652 440,83 руб.</t>
+        </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Брянская область, обл Брянская Брянская область, г. Брянск, пр-кт Ленина, д. 6А, пом. III</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>территория нежилой застройки города Москвы No 58 общей площадью 12,98 га, расположенная в производственной зоне No 37а «Южное Очаково»</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000021460000000445_1</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>В соответствии с информационным сообщением</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18921976</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>05.08.2024 17:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
-        <v>647.7</v>
-      </c>
-      <c r="B348" t="n">
-        <v>35136000</v>
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>76 126 536,53 руб.</t>
+        </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Республика Бурятия, Респ Бурятия, г.о. город Улан-Удэ, г Улан-Удэ, ул Сахьяновой, дом 5</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>СВАО, Территория нежилой застройки города Москвы No 2220 общей площадью 7,19 га, расположенная в производственной зоне No 10 «Владыкино» (территория 1)</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000003120000000195_1</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>Нежилое помещение общей площадью 647,7 кв. м с кадастровым номером 03:24:032705:209</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18897221</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>30.07.2024 10:00 (МСК+5)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
-        <v>349</v>
-      </c>
-      <c r="B349" t="n">
-        <v>82219000</v>
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1 014 914 914,68 руб.</t>
+        </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Мосфильмовская, дом 55</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>САО, Территория нежилой застройки города Москвы, общей площадью 15,34 га, расположенная в производственной зоне No 48 «Дегунино-Лихоборы»</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021425_1</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Мосфильмовская, д. 55, площадью 349 кв. м (Этаж № 1), кадастровый номер: 77:07:0013003:21385</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18897200</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr">
         <is>
-          <t>15.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
-        <v>615.3</v>
-      </c>
-      <c r="B350" t="n">
-        <v>59520000</v>
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>131 137 391,81 руб.</t>
+        </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>ВАО, р-н Новогиреево, Территория нежилой застройки города Москвы No 1900 общей площадью 20,99 га, расположенная по адресу: Кусковская ул., вл. 12</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004897_1</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург, Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н, площадь 615.3 кв.м., назначение: нежилое помещение, наименование: нежилое помещение, этаж №№ 4, 5, кадастровый номер 78:31:0145501:2341. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 23.08.2011 № 78-78-42/039/2011-305.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18863755</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
-          <t>29.07.2024 23:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
-        <v>375.9</v>
-      </c>
-      <c r="B351" t="n">
-        <v>69120000</v>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>308,95 м2</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>137 061 388,8 руб.</t>
+        </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург пер. Пирогова, д. 17, литера А, пом. 5-Н</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, примыкающие к станциям «Китай-г.», «Коньково», «Тропарево», «Юго-Западная» Лот No10</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004889_1</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург,                                  пер. Пирогова, д. 17, литера А, пом. 5-Н, площадь 375.9 кв.м, назначение: нежилое, наименование: нежилое помещение, этаж №1, 2, 3, 4, цокольный, кадастровый номер 78:32:0001254:1196. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 10.06.2014 № 78-78-30/042/2014-117.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874896</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr">
         <is>
-          <t>29.07.2024 23:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
-      <c r="B352" t="n">
-        <v>131664000</v>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>255,30 м2</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>123 876 594 руб.</t>
+        </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Лефортово, ш Андроновское, дом 26 стр. 5, помещ. 1/П</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>ЮАО, р-н Орехово-Борисово Южное, подуличные переходы, примыкающие к станциям «Домодедовская», «Зябликово», «Коломенская», «Шипиловская» Лот No7</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001289_1</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>г. Москва, ш. Андроновское, д. 26, стр. 5, пом. 1/П, подвал № 0, к/н 77:04:0001017:3011, поручение Л3/24/22/Дор-58</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874893</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr">
         <is>
-          <t>29.07.2024 11:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="n">
-        <v>35708000</v>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>231,14 м2</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>103 183 273,8 руб.</t>
+        </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, ул Мнёвники, дом 7 к. 2, помещ. 1/П</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, примыкающие к станциям «Китай-г.», «Лубянка», «Нагатинская», «Нагорная», «Новые Черёмушки», «Пушкинская», «Чертановская», «Южная», «Ясенево» Лот No9</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000302_1</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, улица Мнёвники, дом 7, корпус 2, помещение 1/П, к/н 77:08:0010013:3949, должник (собственник) ООО «ГРИНХОФФ» ИНН 7734407057.  Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874892</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr">
         <is>
-          <t>29.07.2024 11:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
-        <v>581.7</v>
-      </c>
-      <c r="B354" t="n">
-        <v>122504000</v>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>615,23 м2</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>284 611 620,6 руб.</t>
+        </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва Арбат, ул. Смоленская, д. 10, пом. 2/1</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, примыкающие к станциям «Китай-г.», «Октябрьское поле», «Пражская», «ул. Академика Янгеля», «Царицыно» Лот No8</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001315_1</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>г. Москва, Арбат, ул. Смоленская, д. 10, пом. 2/1, к/н: 77:01:0001059:2763</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874886</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr">
         <is>
-          <t>31.07.2024 09:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
-      <c r="B355" t="n">
-        <v>1877673000</v>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>393,18 м2</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>184 056 658,2 руб.</t>
+        </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Тверской, ул Никольская, дом 25</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>ЮВАО, Южнопортовый р-н, подуличные переходы, примыкающие к станциям «Дубровка», «Волжская», «Китай-г.», «Люблино», «Марьино» Лот No6</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000291_1</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Тверской, улица Никольская, дом 25, помещение 2/1, к/н 77:01:0001008:3466 (договор аренды земельного участка к/н 77:01:0001008:68 с ДГИ г.Москвы от 20.02.2003 сроком до 28.10.2045), должник (фактический собственник по решению суда) Бородин А.Ф., собственник (по данным Росреестра) ООО «ТДН». Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874883</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr">
         <is>
-          <t>24.07.2024 11:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
-        <v>788.8</v>
-      </c>
-      <c r="B356" t="n">
-        <v>39670398</v>
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>56 185 289,25 руб.</t>
+        </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Ленинградская область, обл Ленинградская, м.р-н Выборгский, г.п. Выборгское, г Выборг, ул Мира, дом 9</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>СВАО, территория нежилой застройки города Москвы No 2219, расположенная в производственной зоне No 50 «Алтуфьевское ш.» (проект 2, территория 2)</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000030700000000278_1</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>нежилое помещение, общей площадью 788,8 кв.м., кадастровый номер 47:01:0107003:5176 ,помещение 1</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18846449</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr">
         <is>
-          <t>23.07.2024 09:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
-      <c r="B357" t="n">
-        <v>118458000</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>230 667 370,47 руб.</t>
+        </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Приморский край, край Приморский, г.о. Владивостокский, г Владивосток, ул Светланская, дом 53</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr"/>
+          <t>ЮАО, территория нежилой застройки города Москвы No 61, расположенная в производственной зоне No 36 «Красный строитель»</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000782_1</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>В соответствии с Извещением.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18848683</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr">
         <is>
-          <t>05.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
-        <v>410.9</v>
-      </c>
-      <c r="B358" t="n">
-        <v>54873000</v>
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>410,58 м2</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>177 280 071 руб.</t>
+        </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Нагатино-Садовники, ул Академика Миллионщикова, дом 7 к. 1</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, примыкающие к станциям «Китай-г.» КРЛ, «Китай-г.» ТКЛ, «Кожуховская», «Лермонтовский пр-т», «Печатники», «Пролетарская» Лот No5</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021364_1</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Академика Миллионщикова, д. 7, корп. 1 площадью 410,9 кв. м (Антресоль № 0, Этаж № 1, Подвал № 0), кадастровый номер: 77:05:0004014:3846</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874899</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr">
         <is>
-          <t>01.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
-        <v>559</v>
-      </c>
-      <c r="B359" t="n">
-        <v>51227000</v>
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>525,14 м2</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>269 609 501,4 руб.</t>
+        </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Сокольники, ул Короленко, дом 1 к. 4</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, примыкающие к станциям «Китай-г.» КРЛ, «Марксистская», «Новогиреево», «Новокосино», «Полянка», «Римская», «Серпуховская» Лот No4</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021363_1</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г муниципальный округ Сокольники, ул Короленко, д. 1, к. 4,(нежилые помещения, общей площадью 559,0 кв. м.), кадастровый номер: 77:03:0003010:5935;77:03:0003010:5936;77:03:0003010:5932;77:03:0003010:5934.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874891</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
-          <t>01.08.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr"/>
-      <c r="B360" t="n">
-        <v>72816700</v>
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>359,57 м2</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>165 547 438,8 руб.</t>
+        </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Московская область, обл Московская, г.о. Люберцы, г Люберцы, пр-кт Октябрьский, дом 403</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
+          <t>САО, Хорошевский р-н, подуличные переходы, примыкающие к станциям «Беговая», «Белорусская», «ВДНХ», «Достоевская», «Китай-г.», «Менделеевская», «Преображенская пл.», «Савеловская», «Свиблово», «Тимирязевская», «Черкизовская» Лот No3</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000780_1</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>В соответствии с Извещением.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874890</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr">
         <is>
-          <t>29.07.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
-      <c r="B361" t="n">
-        <v>38178855</v>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>287,60 м2</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>135 186 049,2 руб.</t>
+        </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, п. Керамзавода</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
+          <t>СВАО, р-н Бибирево, подуличные переходы, примыкающие к станциям «Алтуфьево», «Войковская», «Дмитровская», «Китай-г.», «Отрадное», «Сокол», «Щукинская» Лот No2</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_130</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>объект незавершенного строительства, пл. 4633,8 кв.м., 74:36:0715009:141, право аренды на з/у пл. 5902 кв.м., кад № 74:36:0715008:28, Челябинская область, г. Челябинск, п. Керамзавод</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874880</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr">
         <is>
-          <t>29.07.2024 16:00 (МСК+1)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
-        <v>1913.7</v>
-      </c>
-      <c r="B362" t="n">
-        <v>36654720</v>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>411,83 м2</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>176 598 844,2 руб.</t>
+        </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, ул Сормовская, дом 32</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>ЦАО, Тверской р-н, подуличные переходы, прилегающих к станциям метрополитена: «Китай-г.», «Крылатское», «Митино», «Планерная», «Пятницкое ш.», «Строгино», «Сходненская», «Тушинская», «ул. 1905 года» Лот No1</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Комплексное обслуживание</t>
+        </is>
+      </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_100</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>Челябинская область, г. Челябинск, ул. Сормовская, д. 32, кад № 74:36:0609013:167</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18874846</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr">
         <is>
-          <t>29.07.2024 16:00 (МСК+1)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
-        <v>332.1</v>
-      </c>
-      <c r="B363" t="n">
-        <v>41834000</v>
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>740 785 946,05 руб.</t>
+        </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Верхняя Радищевская, дом 11 стр. 2</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
+          <t>САО, территория нежилой застройки города Москвы No 3, расположенной в производственной зоне No 45 «Автомоторная»</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021300_1</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Верхняя Радищевская, д. 11, стр. 2 площадью 332,1 кв. м (Этаж № 1, Подвал № 0), кадастровый номер: 77:01:0002026:2347</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18676850</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr">
         <is>
-          <t>29.07.2024 15:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
-        <v>362.2</v>
-      </c>
-      <c r="B364" t="n">
-        <v>53640000</v>
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>47 684 886,1 руб.</t>
+        </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 19-Н</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
+          <t>ЮЗАО, территория нежилой застройки города Москвы No 48, расположенная в производственной зоне «Южное Бутово»</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004855_1</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 19-Н, площадь 362.2 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1471. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 26.09.2023 № 78:06:0002205:1471-78/011/2023-1.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18668455</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
-          <t>22.07.2024 23:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
-        <v>406</v>
-      </c>
-      <c r="B365" t="n">
-        <v>52440000</v>
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>37 460 213 руб.</t>
+        </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 18-Н</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
+          <t>СВАО, Москва, ш Алтуфьевское, вл 29Б</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Комплексное развитие территорий</t>
+        </is>
+      </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004854_1</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 18-Н, площадь 406 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1458. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 25.09.2023 № 78:06:0002205:1458-78/011/2023-1.</t>
-        </is>
-      </c>
+          <t>https://investmoscow.ru/tenders/tender/18257184</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
-          <t>22.07.2024 23:00 (МСК)</t>
+          <t>Торги завершены</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
-        <v>666.5</v>
-      </c>
+      <c r="A366" t="inlineStr"/>
       <c r="B366" t="n">
-        <v>72802000</v>
+        <v>139345000</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Курганская область, обл Курганская, г.о. город Курган, г Курган, ул Рихарда Зорге, дом 28/1</t>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Строгино, пр-кт Маршала Жукова, дом 78 к. 5</t>
         </is>
       </c>
       <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000009230000001513_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021752_1</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Курганская область, г. Курган, ул. Зорге, д. 28/I.</t>
+          <t>г. Москва, просп. Маршала Жукова, д. 78, корп. 5, общей пл. 948,6 кв. м (этаж № 1, № 2)посредством публичного предложения</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>24.07.2024 16:00 (МСК+2)</t>
+          <t>29.08.2024 15:00 (МСК)</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" t="n">
+        <v>758.2</v>
+      </c>
       <c r="B367" t="n">
-        <v>64007040</v>
+        <v>44127240</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Пресненский, наб Пресненская, дом 8 стр. 1</t>
+          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
         </is>
       </c>
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001188_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_2</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>г. Москва, наб. Пресненская, д. 8, стр. 1; 26 этаж, пом. 263С-комната, 1, 2, 2а, с 3 по 10, к.н. 77:01:0004042:6147, пл. 226,9 кв.м.</t>
+          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>22.07.2024 18:00 (МСК)</t>
+          <t>14.08.2024 12:00 (МСК+4)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2333.6</v>
+        <v>760.4</v>
       </c>
       <c r="B368" t="n">
-        <v>48374860</v>
+        <v>44255300</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А</t>
+          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
         </is>
       </c>
       <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000012000000000062_3</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_1</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А, кадастровый номер 78:00:0000000:59910. Обременение – арест, запрет регистрационных действий ФССП, запрет регистрационных действий по решению МИФНС. По результатам проведенного аукциона лицо, признанное победителем торгов, обязано перечислить НДС в размере 20%, начисленного к продажной (конечной) стоимости, на счет МТУ Росимущества в городе Санкт-Петербурге и Ленинградской области.</t>
+          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>23.07.2024 15:00 (МСК)</t>
+          <t>14.08.2024 12:00 (МСК+4)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>459.3</v>
+        <v>2307.3</v>
       </c>
       <c r="B369" t="n">
-        <v>55080000</v>
+        <v>46510000</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>г. Севастополь, г Севастополь, вн.тер.г. Ленинский муниципальный округ, ул Ленина, дом 52</t>
+          <t>Мурманская область, обл Мурманская, м.о. город Кировск, г Кировск, ул Кирова, дом 19</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000051770000000101_15</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000011690000000123_1</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>г. Севастополь, ул. Ленина, 52, площадью 459,3 кв.м., кадастровый номер 91:03:001006:5 (арест).</t>
+          <t>Мурманская обл., г. Кировск, ул. Кирова д. 19.</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>22.07.2024 17:00 (МСК+1)</t>
+          <t>12.08.2024 17:00 (МСК)</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
-        <v>2057.5</v>
-      </c>
+      <c r="A370" t="inlineStr"/>
       <c r="B370" t="n">
-        <v>205116000</v>
+        <v>429079002</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Обручевский, ул Намёткина, дом 1 к. 3</t>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Некрасовка, ул 2-я Вольская, дом 11 к. 3</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021212_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000054680000000092_1</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>г. Москва, ул. Намёткина, д. 1, корп. 3 (Этаж № 1,2,3,4)  общей площадью 2 057,5 кв.м, кадастровые номера:  77:06:0003012:4444, 77:06:0004007:8781, 77:06:0004007:8782, 77:06:0004007:8783, 77:06:0004007:8784, 77:06:0004007:8786, 77:06:0004007:8787, 77:06:0004007:8788, 77:06:0004007:8789, 77:06:0004007:8790, 77:06:0004007:8791 посредством публичного предложения</t>
+          <t>г. Москва. 2-я Вольская улица, д.11, корп.3, площадь 9097,4 м², кадастровый номер: 77:04:0006002:4475</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>25.07.2024 15:00 (МСК)</t>
+          <t>22.08.2024 15:00 (МСК)</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2213.5</v>
+        <v>533.5</v>
       </c>
       <c r="B371" t="n">
-        <v>205964000</v>
+        <v>72054400</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Можайский, ул Кутузова, дом 11 к. 2</t>
+          <t>г. Москва, г Москва ул. Краснобогатырская, д. 72 стр.2</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021208_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001342_1</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>г. Москва, ул. Кутузова, д. 11, корп. 2 общей площадью 2 213,5 кв. м (Подвал № 3, Цокольный этаж № 0, Этаж № 1), кадастровые номера: 77:07:0008002:14716, 77:07:0008002:14721, 77:07:0008002:14723, 77:07:0008002:14728, 77:07:0008002:14729 посредством публичного предложения</t>
+          <t>г.Москва, ул. Краснобогатырская, д. 72 стр.2, к/н: 77:03:0001003:1054</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>25.07.2024 15:00 (МСК)</t>
+          <t>15.08.2024 09:00 (МСК)</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
-        <v>-6216.7</v>
-      </c>
+      <c r="A372" t="inlineStr"/>
       <c r="B372" t="n">
-        <v>87155300</v>
+        <v>89316456.15000001</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Ярославская область, обл Ярославская Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15.</t>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Арбат, пер Шубинский, дом 2/3 пом. 3/Ц</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000004310000001454_12</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001326_1</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Нежилое помещение, площадь - 6216,7 кв. м, назначение - нежилое, кадастровый номер 76:18:011001:2052, местонахождение: Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15. Собственник имущества - ООО «Восток». 1 PIBI_UNITS_NAME_NOTE_18</t>
+          <t>г. Москва, пер. Шубинский, д. 2/3, пом. 3/Ц, к/н 77:01:0005001:6133, поручение Л3/24/25/ЦАО №1-55</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>22.07.2024 23:59 (МСК)</t>
+          <t>30.07.2024 11:00 (МСК)</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
+      <c r="A373" t="n">
+        <v>380.2</v>
+      </c>
       <c r="B373" t="n">
-        <v>127762800</v>
+        <v>60639549</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Сахалинская область, обл Сахалинская расположенное по адресу: Сахалинская область, Долинский район, г. Долинск, ул. Быкова, дом 8, Кирова,77</t>
+          <t>Свердловская область, обл Свердловская, г.о. город Екатеринбург, г Екатеринбург, ул Бабушкина, дом 1</t>
         </is>
       </c>
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
         <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000038750000000248_7</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Нежилые помещения и право долгосрочной аренды земельного участка, площадь 380,2 кв.м.; 2666,2 кв.м.; 7655 кв.м., кадастровый № 66:41:0108124:65; 66:41:0108124:58; 66:41:0108111:83, должник МУП «Екатеринбургэнерго». Уведомление ТУ Росимущества в СО от 18.04.2024 № 98-34/24. Адрес объекта: Свердловская область, г. Екатеринбург, ул. Бабушкина, д. 1. Минимальная начальная цена 60639549р. Сумма задатка 9095932.35р.</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>09.08.2024 00:00 (МСК+2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>511.4</v>
+      </c>
+      <c r="B374" t="n">
+        <v>42837000</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Чертаново Северное, мкр. Северное Чертаново, дом 4 к. 407</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021512_1</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>г. Москва, мкр. Северное Чертаново, д. 4, корп. 407, площадью 511,4 кв. м (Этаж № 2), кадастровый номер: 77:05:0006002:13624</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>12.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr"/>
+      <c r="B375" t="n">
+        <v>273889000</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хамовники, ул Малая Пироговская, дом 13 стр. 1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001240_1</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>г. Москва, вн.тер.г, муниципальный округ Хамовники, ул. Малая Пироговская, д. 13, стр. 1, пом. 2/1, к.н. 77:01:0005008:5270, пл. 1 388,7 кв.м.</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>09.08.2024 18:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="n">
+        <v>2176232000</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Таганская, дом 3</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001233_1</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Таганская, д. 3, пом. 2/3, к.н. 77:01:0006025:4570, пл. 12 110,5 кв.м.</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>08.08.2024 18:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>250</v>
+      </c>
+      <c r="B377" t="n">
+        <v>52017000</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Ново-Переделкино, ул Чоботовская, дом 2 к. 2</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021497_1</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Чоботовская, д. 2, корп. 2 площадью 250 кв. м. (Этаж № 1), кадастровый номер: 77:07:0015005:32152</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>15.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>879</v>
+      </c>
+      <c r="B378" t="n">
+        <v>43384000</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Белгородская область, обл Белгородская, г.о. город Белгород, г Белгород, ул Константина Заслонова, дом 92в</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000016390000000852_25</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Нежилое здание площадью 879 кв. м, кадастровый номер 31:16:0210027:1138. Имущество обременено: арест, запрет на регистрационные действия, доверительное управление. Имущество принадлежит на праве собственности Пономаревой Т.А. Основание реализации: постановление о передаче арестованного имущества на торги от 13.06.2024 №31010/24/1736386 ОСП по г.Белгороду УФССП России по Белгородской</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>08.08.2024 18:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="n">
+        <v>384033000</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Марьино, ул Братиславская, дом 15 к. 1, помещ. 1Н</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000309_1</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Марьино, ул. Братиславская, д. 15, к. 1, помещ. 1Н, к/н 77:04:0004026:18351, должник (собственник) ООО «Призма»   Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>05.08.2024 11:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="n">
+        <v>111792000</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Улофа Пальме, дом 1</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001225_1</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>г. Москва, вн.тер.г, муниципальный округ Раменки, ул. Улофа Пальме, д. 1, пом. 18/1, (этаж 1: пом. XVIII, ком. 1-17; этаж 2: пом. II, ком. 1-11; этаж 3: пом. I, ком. 1-15), к.н. 77:07:0006004:16784, пл. 1 798,6 кв.м.</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>05.08.2024 18:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>346.9</v>
+      </c>
+      <c r="B381" t="n">
+        <v>37587000</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Бабушкинский, ул Лётчика Бабушкина, дом 38 к. 2</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021480_1</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>ул. Лётчика Бабушкина, д. 38, корп. 2, общей площадью 346,9 кв. м (Этаж № 1, Этаж № 3), кадастровые номера: 77:02:0010009:3797, 77:02:0010009:3796, 77:02:0010009:3798,77:02:0010009:3703</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>06.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="n">
+        <v>49408000</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Брянская область, обл Брянская Брянская область, г. Брянск, пр-кт Ленина, д. 6А, пом. III</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000021460000000445_1</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>В соответствии с информационным сообщением</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>05.08.2024 17:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>647.7</v>
+      </c>
+      <c r="B383" t="n">
+        <v>35136000</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Республика Бурятия, Респ Бурятия, г.о. город Улан-Удэ, г Улан-Удэ, ул Сахьяновой, дом 5</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000003120000000195_1</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Нежилое помещение общей площадью 647,7 кв. м с кадастровым номером 03:24:032705:209</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>30.07.2024 10:00 (МСК+5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>349</v>
+      </c>
+      <c r="B384" t="n">
+        <v>82219000</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Мосфильмовская, дом 55</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021425_1</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Мосфильмовская, д. 55, площадью 349 кв. м (Этаж № 1), кадастровый номер: 77:07:0013003:21385</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>15.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>615.3</v>
+      </c>
+      <c r="B385" t="n">
+        <v>59520000</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, г Санкт-Петербург Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004897_1</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург, Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н, площадь 615.3 кв.м., назначение: нежилое помещение, наименование: нежилое помещение, этаж №№ 4, 5, кадастровый номер 78:31:0145501:2341. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 23.08.2011 № 78-78-42/039/2011-305.</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>29.07.2024 23:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="B386" t="n">
+        <v>69120000</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, г Санкт-Петербург пер. Пирогова, д. 17, литера А, пом. 5-Н</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004889_1</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург,                                  пер. Пирогова, д. 17, литера А, пом. 5-Н, площадь 375.9 кв.м, назначение: нежилое, наименование: нежилое помещение, этаж №1, 2, 3, 4, цокольный, кадастровый номер 78:32:0001254:1196. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 10.06.2014 № 78-78-30/042/2014-117.</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>29.07.2024 23:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr"/>
+      <c r="B387" t="n">
+        <v>131664000</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Лефортово, ш Андроновское, дом 26 стр. 5, помещ. 1/П</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001289_1</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>г. Москва, ш. Андроновское, д. 26, стр. 5, пом. 1/П, подвал № 0, к/н 77:04:0001017:3011, поручение Л3/24/22/Дор-58</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>29.07.2024 11:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" t="n">
+        <v>35708000</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, ул Мнёвники, дом 7 к. 2, помещ. 1/П</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000302_1</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, улица Мнёвники, дом 7, корпус 2, помещение 1/П, к/н 77:08:0010013:3949, должник (собственник) ООО «ГРИНХОФФ» ИНН 7734407057.  Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>29.07.2024 11:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>581.7</v>
+      </c>
+      <c r="B389" t="n">
+        <v>122504000</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва Арбат, ул. Смоленская, д. 10, пом. 2/1</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001315_1</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>г. Москва, Арбат, ул. Смоленская, д. 10, пом. 2/1, к/н: 77:01:0001059:2763</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>31.07.2024 09:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" t="n">
+        <v>1877673000</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Тверской, ул Никольская, дом 25</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000291_1</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Тверской, улица Никольская, дом 25, помещение 2/1, к/н 77:01:0001008:3466 (договор аренды земельного участка к/н 77:01:0001008:68 с ДГИ г.Москвы от 20.02.2003 сроком до 28.10.2045), должник (фактический собственник по решению суда) Бородин А.Ф., собственник (по данным Росреестра) ООО «ТДН». Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>24.07.2024 11:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>788.8</v>
+      </c>
+      <c r="B391" t="n">
+        <v>39670398</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Ленинградская область, обл Ленинградская, м.р-н Выборгский, г.п. Выборгское, г Выборг, ул Мира, дом 9</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000030700000000278_1</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>нежилое помещение, общей площадью 788,8 кв.м., кадастровый номер 47:01:0107003:5176 ,помещение 1</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>23.07.2024 09:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" t="n">
+        <v>118458000</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Приморский край, край Приморский, г.о. Владивостокский, г Владивосток, ул Светланская, дом 53</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000782_1</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>В соответствии с Извещением.</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>05.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>410.9</v>
+      </c>
+      <c r="B393" t="n">
+        <v>54873000</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Нагатино-Садовники, ул Академика Миллионщикова, дом 7 к. 1</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021364_1</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Академика Миллионщикова, д. 7, корп. 1 площадью 410,9 кв. м (Антресоль № 0, Этаж № 1, Подвал № 0), кадастровый номер: 77:05:0004014:3846</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>01.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>559</v>
+      </c>
+      <c r="B394" t="n">
+        <v>51227000</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Сокольники, ул Короленко, дом 1 к. 4</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021363_1</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Российская Федерация, город Москва, вн.тер.г муниципальный округ Сокольники, ул Короленко, д. 1, к. 4,(нежилые помещения, общей площадью 559,0 кв. м.), кадастровый номер: 77:03:0003010:5935;77:03:0003010:5936;77:03:0003010:5932;77:03:0003010:5934.</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>01.08.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="n">
+        <v>72816700</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Московская область, обл Московская, г.о. Люберцы, г Люберцы, пр-кт Октябрьский, дом 403</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000780_1</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>В соответствии с Извещением.</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>29.07.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr"/>
+      <c r="B396" t="n">
+        <v>38178855</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, п. Керамзавода</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_130</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>объект незавершенного строительства, пл. 4633,8 кв.м., 74:36:0715009:141, право аренды на з/у пл. 5902 кв.м., кад № 74:36:0715008:28, Челябинская область, г. Челябинск, п. Керамзавод</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>29.07.2024 16:00 (МСК+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1913.7</v>
+      </c>
+      <c r="B397" t="n">
+        <v>36654720</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, ул Сормовская, дом 32</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_100</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Челябинская область, г. Челябинск, ул. Сормовская, д. 32, кад № 74:36:0609013:167</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>29.07.2024 16:00 (МСК+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="B398" t="n">
+        <v>41834000</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Верхняя Радищевская, дом 11 стр. 2</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021300_1</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Верхняя Радищевская, д. 11, стр. 2 площадью 332,1 кв. м (Этаж № 1, Подвал № 0), кадастровый номер: 77:01:0002026:2347</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>29.07.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="B399" t="n">
+        <v>53640000</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 19-Н</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004855_1</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 19-Н, площадь 362.2 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1471. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 26.09.2023 № 78:06:0002205:1471-78/011/2023-1.</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>22.07.2024 23:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>406</v>
+      </c>
+      <c r="B400" t="n">
+        <v>52440000</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 18-Н</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004854_1</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 18-Н, площадь 406 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1458. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 25.09.2023 № 78:06:0002205:1458-78/011/2023-1.</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>22.07.2024 23:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>666.5</v>
+      </c>
+      <c r="B401" t="n">
+        <v>72802000</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Курганская область, обл Курганская, г.о. город Курган, г Курган, ул Рихарда Зорге, дом 28/1</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000009230000001513_1</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Курганская область, г. Курган, ул. Зорге, д. 28/I.</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>24.07.2024 16:00 (МСК+2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="n">
+        <v>64007040</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Пресненский, наб Пресненская, дом 8 стр. 1</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001188_1</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>г. Москва, наб. Пресненская, д. 8, стр. 1; 26 этаж, пом. 263С-комната, 1, 2, 2а, с 3 по 10, к.н. 77:01:0004042:6147, пл. 226,9 кв.м.</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>22.07.2024 18:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>2333.6</v>
+      </c>
+      <c r="B403" t="n">
+        <v>48374860</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, г Санкт-Петербург г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000012000000000062_3</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А, кадастровый номер 78:00:0000000:59910. Обременение – арест, запрет регистрационных действий ФССП, запрет регистрационных действий по решению МИФНС. По результатам проведенного аукциона лицо, признанное победителем торгов, обязано перечислить НДС в размере 20%, начисленного к продажной (конечной) стоимости, на счет МТУ Росимущества в городе Санкт-Петербурге и Ленинградской области.</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>23.07.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>459.3</v>
+      </c>
+      <c r="B404" t="n">
+        <v>55080000</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>г. Севастополь, г Севастополь, вн.тер.г. Ленинский муниципальный округ, ул Ленина, дом 52</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000051770000000101_15</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>г. Севастополь, ул. Ленина, 52, площадью 459,3 кв.м., кадастровый номер 91:03:001006:5 (арест).</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>22.07.2024 17:00 (МСК+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2057.5</v>
+      </c>
+      <c r="B405" t="n">
+        <v>205116000</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Обручевский, ул Намёткина, дом 1 к. 3</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021212_1</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Намёткина, д. 1, корп. 3 (Этаж № 1,2,3,4)  общей площадью 2 057,5 кв.м, кадастровые номера:  77:06:0003012:4444, 77:06:0004007:8781, 77:06:0004007:8782, 77:06:0004007:8783, 77:06:0004007:8784, 77:06:0004007:8786, 77:06:0004007:8787, 77:06:0004007:8788, 77:06:0004007:8789, 77:06:0004007:8790, 77:06:0004007:8791 посредством публичного предложения</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>25.07.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>2213.5</v>
+      </c>
+      <c r="B406" t="n">
+        <v>205964000</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Можайский, ул Кутузова, дом 11 к. 2</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021208_1</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Кутузова, д. 11, корп. 2 общей площадью 2 213,5 кв. м (Подвал № 3, Цокольный этаж № 0, Этаж № 1), кадастровые номера: 77:07:0008002:14716, 77:07:0008002:14721, 77:07:0008002:14723, 77:07:0008002:14728, 77:07:0008002:14729 посредством публичного предложения</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>25.07.2024 15:00 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>6216.7</v>
+      </c>
+      <c r="B407" t="n">
+        <v>87155300</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Ярославская область, обл Ярославская Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>https://torgi.gov.ru/new/public/lots/lot/21000004310000001454_12</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Нежилое помещение, площадь - 6216,7 кв. м, назначение - нежилое, кадастровый номер 76:18:011001:2052, местонахождение: Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15. Собственник имущества - ООО «Восток». 1 PIBI_UNITS_NAME_NOTE_18</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>22.07.2024 23:59 (МСК)</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="n">
+        <v>127762800</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Сахалинская область, обл Сахалинская расположенное по адресу: Сахалинская область, Долинский район, г. Долинск, ул. Быкова, дом 8, Кирова,77</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
           <t>https://torgi.gov.ru/new/public/lots/lot/22000103910000000027_1</t>
         </is>
       </c>
-      <c r="F373" t="inlineStr">
+      <c r="F408" t="inlineStr">
         <is>
           <t>Здание нежилое, здание ГСМ площадью 62,4 м2, кадастровый номер: 65:11:0000007:339</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr">
+      <c r="G408" t="inlineStr">
         <is>
           <t>15.07.2024 09:00 (МСК+8)</t>
         </is>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="inlineStr"/>
-      <c r="B374" t="n">
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="n">
         <v>65359000</v>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t xml:space="preserve">Хабаровский край, край Хабаровский Хабаровский край,  Хабаровский район,  в районе  села Воронежское -1,  2,5 км на северо-запад от развилки автодороги 
 г. Хабаровск – с. Мичуринское и дороги, ведущей к территориям  оздоровительных лагерей
 </t>
         </is>
       </c>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000053890000000031_1</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>Хабаровский край,  Хабаровский район,  в районе  села Воронежское -1,  2,5 км на северо-запад от развилки автодороги г. Хабаровск – с. Мичуринское и дороги, ведущей к территориям  оздоровительных лагерей: нежилые  помещения и земельный участок смотри в приложении 2 к постановлению</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>12.07.2024 10:00 (МСК+7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>-3866.4</v>
-      </c>
-      <c r="B375" t="n">
-        <v>56983000</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Алтайский край, край Алтайский г. Бийск, ул. Социалистическая, д. 17, Н-3. </t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000050390000000016_10</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>Лот№10 Нежилое помещение, кадастровый № - 22:65:011201:3325, площадь - 3866,4 кв.м., адрес - г. Бийск, ул. Социалистическая, д. 17, Н-3. Нач.цена 56983000 руб.  (ООО "Бийский деревообрабатывающий комбинат", арест, постановление СПИ о запрете рег. действий) (778)</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>10.07.2024 15:00 (МСК+4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr"/>
-      <c r="B376" t="n">
-        <v>139345000</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Строгино, пр-кт Маршала Жукова, дом 78 к. 5</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021752_1</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>г. Москва, просп. Маршала Жукова, д. 78, корп. 5, общей пл. 948,6 кв. м (этаж № 1, № 2)посредством публичного предложения</t>
-        </is>
-      </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>29.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>758.2</v>
-      </c>
-      <c r="B377" t="n">
-        <v>44127240</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_2</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
-        </is>
-      </c>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>14.08.2024 12:00 (МСК+4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>760.4</v>
-      </c>
-      <c r="B378" t="n">
-        <v>44255300</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Новосибирская область, обл Новосибирская, г.о. город Новосибирск, г Новосибирск, пр-кт Красный, дом 74</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000023030000000210_1</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>Новосибирская область, город Новосибирск, Красный проспект, дом 74</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>14.08.2024 12:00 (МСК+4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>2307.3</v>
-      </c>
-      <c r="B379" t="n">
-        <v>46510000</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Мурманская область, обл Мурманская, м.о. город Кировск, г Кировск, ул Кирова, дом 19</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000011690000000123_1</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>Мурманская обл., г. Кировск, ул. Кирова д. 19.</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>12.08.2024 17:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr"/>
-      <c r="B380" t="n">
-        <v>429079002</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Некрасовка, ул 2-я Вольская, дом 11 к. 3</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054680000000092_1</t>
-        </is>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>г. Москва. 2-я Вольская улица, д.11, корп.3, площадь 9097,4 м², кадастровый номер: 77:04:0006002:4475</t>
-        </is>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>22.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>533.5</v>
-      </c>
-      <c r="B381" t="n">
-        <v>72054400</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва ул. Краснобогатырская, д. 72 стр.2</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001342_1</t>
-        </is>
-      </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>г.Москва, ул. Краснобогатырская, д. 72 стр.2, к/н: 77:03:0001003:1054</t>
-        </is>
-      </c>
-      <c r="G381" t="inlineStr">
-        <is>
-          <t>15.08.2024 09:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr"/>
-      <c r="B382" t="n">
-        <v>89316456.15000001</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Арбат, пер Шубинский, дом 2/3 пом. 3/Ц</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001326_1</t>
-        </is>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>г. Москва, пер. Шубинский, д. 2/3, пом. 3/Ц, к/н 77:01:0005001:6133, поручение Л3/24/25/ЦАО №1-55</t>
-        </is>
-      </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>30.07.2024 11:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>380.2</v>
-      </c>
-      <c r="B383" t="n">
-        <v>60639549</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Свердловская область, обл Свердловская, г.о. город Екатеринбург, г Екатеринбург, ул Бабушкина, дом 1</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000038750000000248_7</t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>Нежилые помещения и право долгосрочной аренды земельного участка, площадь 380,2 кв.м.; 2666,2 кв.м.; 7655 кв.м., кадастровый № 66:41:0108124:65; 66:41:0108124:58; 66:41:0108111:83, должник МУП «Екатеринбургэнерго». Уведомление ТУ Росимущества в СО от 18.04.2024 № 98-34/24. Адрес объекта: Свердловская область, г. Екатеринбург, ул. Бабушкина, д. 1. Минимальная начальная цена 60639549р. Сумма задатка 9095932.35р.</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>09.08.2024 00:00 (МСК+2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>511.4</v>
-      </c>
-      <c r="B384" t="n">
-        <v>42837000</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Чертаново Северное, мкр. Северное Чертаново, дом 4 к. 407</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021512_1</t>
-        </is>
-      </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>г. Москва, мкр. Северное Чертаново, д. 4, корп. 407, площадью 511,4 кв. м (Этаж № 2), кадастровый номер: 77:05:0006002:13624</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
-        <is>
-          <t>12.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr"/>
-      <c r="B385" t="n">
-        <v>273889000</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хамовники, ул Малая Пироговская, дом 13 стр. 1</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001240_1</t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>г. Москва, вн.тер.г, муниципальный округ Хамовники, ул. Малая Пироговская, д. 13, стр. 1, пом. 2/1, к.н. 77:01:0005008:5270, пл. 1 388,7 кв.м.</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>09.08.2024 18:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr"/>
-      <c r="B386" t="n">
-        <v>2176232000</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Таганская, дом 3</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001233_1</t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Таганская, д. 3, пом. 2/3, к.н. 77:01:0006025:4570, пл. 12 110,5 кв.м.</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>08.08.2024 18:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>250</v>
-      </c>
-      <c r="B387" t="n">
-        <v>52017000</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Ново-Переделкино, ул Чоботовская, дом 2 к. 2</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021497_1</t>
-        </is>
-      </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Чоботовская, д. 2, корп. 2 площадью 250 кв. м. (Этаж № 1), кадастровый номер: 77:07:0015005:32152</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>15.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>879</v>
-      </c>
-      <c r="B388" t="n">
-        <v>43384000</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>Белгородская область, обл Белгородская, г.о. город Белгород, г Белгород, ул Константина Заслонова, дом 92в</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000016390000000852_25</t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>Нежилое здание площадью 879 кв. м, кадастровый номер 31:16:0210027:1138. Имущество обременено: арест, запрет на регистрационные действия, доверительное управление. Имущество принадлежит на праве собственности Пономаревой Т.А. Основание реализации: постановление о передаче арестованного имущества на торги от 13.06.2024 №31010/24/1736386 ОСП по г.Белгороду УФССП России по Белгородской</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>08.08.2024 18:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr"/>
-      <c r="B389" t="n">
-        <v>384033000</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Марьино, ул Братиславская, дом 15 к. 1, помещ. 1Н</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000309_1</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Марьино, ул. Братиславская, д. 15, к. 1, помещ. 1Н, к/н 77:04:0004026:18351, должник (собственник) ООО «Призма»   Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>05.08.2024 11:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr"/>
-      <c r="B390" t="n">
-        <v>111792000</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Улофа Пальме, дом 1</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001225_1</t>
-        </is>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>г. Москва, вн.тер.г, муниципальный округ Раменки, ул. Улофа Пальме, д. 1, пом. 18/1, (этаж 1: пом. XVIII, ком. 1-17; этаж 2: пом. II, ком. 1-11; этаж 3: пом. I, ком. 1-15), к.н. 77:07:0006004:16784, пл. 1 798,6 кв.м.</t>
-        </is>
-      </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>05.08.2024 18:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>346.9</v>
-      </c>
-      <c r="B391" t="n">
-        <v>37587000</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Бабушкинский, ул Лётчика Бабушкина, дом 38 к. 2</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021480_1</t>
-        </is>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>ул. Лётчика Бабушкина, д. 38, корп. 2, общей площадью 346,9 кв. м (Этаж № 1, Этаж № 3), кадастровые номера: 77:02:0010009:3797, 77:02:0010009:3796, 77:02:0010009:3798,77:02:0010009:3703</t>
-        </is>
-      </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>06.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr"/>
-      <c r="B392" t="n">
-        <v>49408000</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>Брянская область, обл Брянская Брянская область, г. Брянск, пр-кт Ленина, д. 6А, пом. III</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000021460000000445_1</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>В соответствии с информационным сообщением</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>05.08.2024 17:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>647.7</v>
-      </c>
-      <c r="B393" t="n">
-        <v>35136000</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>Республика Бурятия, Респ Бурятия, г.о. город Улан-Удэ, г Улан-Удэ, ул Сахьяновой, дом 5</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000003120000000195_1</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>Нежилое помещение общей площадью 647,7 кв. м с кадастровым номером 03:24:032705:209</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>30.07.2024 10:00 (МСК+5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>349</v>
-      </c>
-      <c r="B394" t="n">
-        <v>82219000</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Раменки, ул Мосфильмовская, дом 55</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021425_1</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Мосфильмовская, д. 55, площадью 349 кв. м (Этаж № 1), кадастровый номер: 77:07:0013003:21385</t>
-        </is>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>15.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>615.3</v>
-      </c>
-      <c r="B395" t="n">
-        <v>59520000</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004897_1</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург, Херсонская ул., д. 8, литера А, пом. 10-Н,12-Н,13-Н, площадь 615.3 кв.м., назначение: нежилое помещение, наименование: нежилое помещение, этаж №№ 4, 5, кадастровый номер 78:31:0145501:2341. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 23.08.2011 № 78-78-42/039/2011-305.</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr">
-        <is>
-          <t>29.07.2024 23:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>375.9</v>
-      </c>
-      <c r="B396" t="n">
-        <v>69120000</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург пер. Пирогова, д. 17, литера А, пом. 5-Н</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004889_1</t>
-        </is>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург,                                  пер. Пирогова, д. 17, литера А, пом. 5-Н, площадь 375.9 кв.м, назначение: нежилое, наименование: нежилое помещение, этаж №1, 2, 3, 4, цокольный, кадастровый номер 78:32:0001254:1196. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 10.06.2014 № 78-78-30/042/2014-117.</t>
-        </is>
-      </c>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>29.07.2024 23:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr"/>
-      <c r="B397" t="n">
-        <v>131664000</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Лефортово, ш Андроновское, дом 26 стр. 5, помещ. 1/П</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000003190000001289_1</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>г. Москва, ш. Андроновское, д. 26, стр. 5, пом. 1/П, подвал № 0, к/н 77:04:0001017:3011, поручение Л3/24/22/Дор-58</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>29.07.2024 11:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr"/>
-      <c r="B398" t="n">
-        <v>35708000</v>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, ул Мнёвники, дом 7 к. 2, помещ. 1/П</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000302_1</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Хорошево-Мневники, улица Мнёвники, дом 7, корпус 2, помещение 1/П, к/н 77:08:0010013:3949, должник (собственник) ООО «ГРИНХОФФ» ИНН 7734407057.  Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>29.07.2024 11:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>581.7</v>
-      </c>
-      <c r="B399" t="n">
-        <v>122504000</v>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва Арбат, ул. Смоленская, д. 10, пом. 2/1</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000138250000001315_1</t>
-        </is>
-      </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>г. Москва, Арбат, ул. Смоленская, д. 10, пом. 2/1, к/н: 77:01:0001059:2763</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>31.07.2024 09:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr"/>
-      <c r="B400" t="n">
-        <v>1877673000</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Тверской, ул Никольская, дом 25</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000054780000000291_1</t>
-        </is>
-      </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г. муниципальный округ Тверской, улица Никольская, дом 25, помещение 2/1, к/н 77:01:0001008:3466 (договор аренды земельного участка к/н 77:01:0001008:68 с ДГИ г.Москвы от 20.02.2003 сроком до 28.10.2045), должник (фактический собственник по решению суда) Бородин А.Ф., собственник (по данным Росреестра) ООО «ТДН». Фотографии имущества судебным приставом-исполнителем не предоставлены</t>
-        </is>
-      </c>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>24.07.2024 11:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>788.8</v>
-      </c>
-      <c r="B401" t="n">
-        <v>39670398</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>Ленинградская область, обл Ленинградская, м.р-н Выборгский, г.п. Выборгское, г Выборг, ул Мира, дом 9</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000030700000000278_1</t>
-        </is>
-      </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>нежилое помещение, общей площадью 788,8 кв.м., кадастровый номер 47:01:0107003:5176 ,помещение 1</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>23.07.2024 09:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr"/>
-      <c r="B402" t="n">
-        <v>118458000</v>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>Приморский край, край Приморский, г.о. Владивостокский, г Владивосток, ул Светланская, дом 53</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000782_1</t>
-        </is>
-      </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>В соответствии с Извещением.</t>
-        </is>
-      </c>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>05.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>410.9</v>
-      </c>
-      <c r="B403" t="n">
-        <v>54873000</v>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Нагатино-Садовники, ул Академика Миллионщикова, дом 7 к. 1</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr"/>
-      <c r="E403" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021364_1</t>
-        </is>
-      </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Академика Миллионщикова, д. 7, корп. 1 площадью 410,9 кв. м (Антресоль № 0, Этаж № 1, Подвал № 0), кадастровый номер: 77:05:0004014:3846</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>01.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>559</v>
-      </c>
-      <c r="B404" t="n">
-        <v>51227000</v>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Сокольники, ул Короленко, дом 1 к. 4</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr"/>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021363_1</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>Российская Федерация, город Москва, вн.тер.г муниципальный округ Сокольники, ул Короленко, д. 1, к. 4,(нежилые помещения, общей площадью 559,0 кв. м.), кадастровый номер: 77:03:0003010:5935;77:03:0003010:5936;77:03:0003010:5932;77:03:0003010:5934.</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>01.08.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr"/>
-      <c r="B405" t="n">
-        <v>72816700</v>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>Московская область, обл Московская, г.о. Люберцы, г Люберцы, пр-кт Октябрьский, дом 403</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000034760000000780_1</t>
-        </is>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>В соответствии с Извещением.</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>29.07.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr"/>
-      <c r="B406" t="n">
-        <v>38178855</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, п. Керамзавода</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_130</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>объект незавершенного строительства, пл. 4633,8 кв.м., 74:36:0715009:141, право аренды на з/у пл. 5902 кв.м., кад № 74:36:0715008:28, Челябинская область, г. Челябинск, п. Керамзавод</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>29.07.2024 16:00 (МСК+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>1913.7</v>
-      </c>
-      <c r="B407" t="n">
-        <v>36654720</v>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>Челябинская область, обл Челябинская, г.о. Челябинский, г Челябинск, ул Сормовская, дом 32</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000000130000000210_100</t>
-        </is>
-      </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>Челябинская область, г. Челябинск, ул. Сормовская, д. 32, кад № 74:36:0609013:167</t>
-        </is>
-      </c>
-      <c r="G407" t="inlineStr">
-        <is>
-          <t>29.07.2024 16:00 (МСК+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>332.1</v>
-      </c>
-      <c r="B408" t="n">
-        <v>41834000</v>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Таганский, ул Верхняя Радищевская, дом 11 стр. 2</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021300_1</t>
-        </is>
-      </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Верхняя Радищевская, д. 11, стр. 2 площадью 332,1 кв. м (Этаж № 1, Подвал № 0), кадастровый номер: 77:01:0002026:2347</t>
-        </is>
-      </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>29.07.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>362.2</v>
-      </c>
-      <c r="B409" t="n">
-        <v>53640000</v>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 19-Н</t>
-        </is>
-      </c>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004855_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/22000053890000000031_1</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 19-Н, площадь 362.2 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1471. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 26.09.2023 № 78:06:0002205:1471-78/011/2023-1.</t>
+          <t>Хабаровский край,  Хабаровский район,  в районе  села Воронежское -1,  2,5 км на северо-запад от развилки автодороги г. Хабаровск – с. Мичуринское и дороги, ведущей к территориям  оздоровительных лагерей: нежилые  помещения и земельный участок смотри в приложении 2 к постановлению</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>22.07.2024 23:00 (МСК)</t>
+          <t>12.07.2024 10:00 (МСК+7)</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>406</v>
+        <v>3866.4</v>
       </c>
       <c r="B410" t="n">
-        <v>52440000</v>
+        <v>56983000</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург наб. Морская, д. 9, литера А, пом. 18-Н</t>
+          <t xml:space="preserve">Алтайский край, край Алтайский г. Бийск, ул. Социалистическая, д. 17, Н-3. </t>
         </is>
       </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000002210000004854_1</t>
+          <t>https://torgi.gov.ru/new/public/lots/lot/23000050390000000016_10</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Санкт-Петербург,                                  наб. Морская, д. 9, литера А, пом. 18-Н, площадь 406 кв.м, назначение: нежилое помещение, этаж: технический этаж 2, кадастровый номер 78:06:0002205:1458. Право собственности города Санкт-Петербурга подтверждается записью в Едином государственном реестре недвижимости от 25.09.2023 № 78:06:0002205:1458-78/011/2023-1.</t>
+          <t>Лот№10 Нежилое помещение, кадастровый № - 22:65:011201:3325, площадь - 3866,4 кв.м., адрес - г. Бийск, ул. Социалистическая, д. 17, Н-3. Нач.цена 56983000 руб.  (ООО "Бийский деревообрабатывающий комбинат", арест, постановление СПИ о запрете рег. действий) (778)</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
-        <is>
-          <t>22.07.2024 23:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>666.5</v>
-      </c>
-      <c r="B411" t="n">
-        <v>72802000</v>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>Курганская область, обл Курганская, г.о. город Курган, г Курган, ул Рихарда Зорге, дом 28/1</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000009230000001513_1</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Курганская область, г. Курган, ул. Зорге, д. 28/I.</t>
-        </is>
-      </c>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>24.07.2024 16:00 (МСК+2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr"/>
-      <c r="B412" t="n">
-        <v>64007040</v>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Пресненский, наб Пресненская, дом 8 стр. 1</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000007130000001188_1</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>г. Москва, наб. Пресненская, д. 8, стр. 1; 26 этаж, пом. 263С-комната, 1, 2, 2а, с 3 по 10, к.н. 77:01:0004042:6147, пл. 226,9 кв.м.</t>
-        </is>
-      </c>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>22.07.2024 18:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>2333.6</v>
-      </c>
-      <c r="B413" t="n">
-        <v>48374860</v>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>г. Санкт-Петербург, г Санкт-Петербург г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000012000000000062_3</t>
-        </is>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>г. Санкт-Петербург, Белорусская улица, д. 4, пом. 1Н 2Н лит. А, кадастровый номер 78:00:0000000:59910. Обременение – арест, запрет регистрационных действий ФССП, запрет регистрационных действий по решению МИФНС. По результатам проведенного аукциона лицо, признанное победителем торгов, обязано перечислить НДС в размере 20%, начисленного к продажной (конечной) стоимости, на счет МТУ Росимущества в городе Санкт-Петербурге и Ленинградской области.</t>
-        </is>
-      </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>23.07.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>459.3</v>
-      </c>
-      <c r="B414" t="n">
-        <v>55080000</v>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>г. Севастополь, г Севастополь, вн.тер.г. Ленинский муниципальный округ, ул Ленина, дом 52</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000051770000000101_15</t>
-        </is>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>г. Севастополь, ул. Ленина, 52, площадью 459,3 кв.м., кадастровый номер 91:03:001006:5 (арест).</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>22.07.2024 17:00 (МСК+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>2057.5</v>
-      </c>
-      <c r="B415" t="n">
-        <v>205116000</v>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Обручевский, ул Намёткина, дом 1 к. 3</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021212_1</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Намёткина, д. 1, корп. 3 (Этаж № 1,2,3,4)  общей площадью 2 057,5 кв.м, кадастровые номера:  77:06:0003012:4444, 77:06:0004007:8781, 77:06:0004007:8782, 77:06:0004007:8783, 77:06:0004007:8784, 77:06:0004007:8786, 77:06:0004007:8787, 77:06:0004007:8788, 77:06:0004007:8789, 77:06:0004007:8790, 77:06:0004007:8791 посредством публичного предложения</t>
-        </is>
-      </c>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>25.07.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>2213.5</v>
-      </c>
-      <c r="B416" t="n">
-        <v>205964000</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>г. Москва, г Москва, вн.тер.г. муниципальный округ Можайский, ул Кутузова, дом 11 к. 2</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000005000000021208_1</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>г. Москва, ул. Кутузова, д. 11, корп. 2 общей площадью 2 213,5 кв. м (Подвал № 3, Цокольный этаж № 0, Этаж № 1), кадастровые номера: 77:07:0008002:14716, 77:07:0008002:14721, 77:07:0008002:14723, 77:07:0008002:14728, 77:07:0008002:14729 посредством публичного предложения</t>
-        </is>
-      </c>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>25.07.2024 15:00 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>6216.7</v>
-      </c>
-      <c r="B417" t="n">
-        <v>87155300</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>Ярославская область, обл Ярославская Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15.</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/21000004310000001454_12</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>Нежилое помещение, площадь - 6216,7 кв. м, назначение - нежилое, кадастровый номер 76:18:011001:2052, местонахождение: Ярославская обл., г. Переславль-Залесский, пл. Менделеева, д. 2, корп. 100, пом. 1-15. Собственник имущества - ООО «Восток». 1 PIBI_UNITS_NAME_NOTE_18</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>22.07.2024 23:59 (МСК)</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr"/>
-      <c r="B418" t="n">
-        <v>127762800</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>Сахалинская область, обл Сахалинская расположенное по адресу: Сахалинская область, Долинский район, г. Долинск, ул. Быкова, дом 8, Кирова,77</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000103910000000027_1</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>Здание нежилое, здание ГСМ площадью 62,4 м2, кадастровый номер: 65:11:0000007:339</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>15.07.2024 09:00 (МСК+8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr"/>
-      <c r="B419" t="n">
-        <v>65359000</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Хабаровский край, край Хабаровский Хабаровский край,  Хабаровский район,  в районе  села Воронежское -1,  2,5 км на северо-запад от развилки автодороги 
-г. Хабаровск – с. Мичуринское и дороги, ведущей к территориям  оздоровительных лагерей
-</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr"/>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/22000053890000000031_1</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>Хабаровский край,  Хабаровский район,  в районе  села Воронежское -1,  2,5 км на северо-запад от развилки автодороги г. Хабаровск – с. Мичуринское и дороги, ведущей к территориям  оздоровительных лагерей: нежилые  помещения и земельный участок смотри в приложении 2 к постановлению</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>12.07.2024 10:00 (МСК+7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>3866.4</v>
-      </c>
-      <c r="B420" t="n">
-        <v>56983000</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Алтайский край, край Алтайский г. Бийск, ул. Социалистическая, д. 17, Н-3. </t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>https://torgi.gov.ru/new/public/lots/lot/23000050390000000016_10</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>Лот№10 Нежилое помещение, кадастровый № - 22:65:011201:3325, площадь - 3866,4 кв.м., адрес - г. Бийск, ул. Социалистическая, д. 17, Н-3. Нач.цена 56983000 руб.  (ООО "Бийский деревообрабатывающий комбинат", арест, постановление СПИ о запрете рег. действий) (778)</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
         <is>
           <t>10.07.2024 15:00 (МСК+4)</t>
         </is>
